--- a/CircuitLevis/resultats/Resultats_2_2021.xlsx
+++ b/CircuitLevis/resultats/Resultats_2_2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projets\cx418WebSite\CircuitLevis\resultats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A68EB86D-85E0-4596-A03D-729892EAEC4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA85EB8C-36EA-4858-A9B5-7E7B11773523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F188DD37-E70F-4203-841D-5192F274CDB0}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="130">
   <si>
     <t>No</t>
   </si>
@@ -422,6 +422,9 @@
   </si>
   <si>
     <t>Cyclocrossde Lévis VéloOptium #2    Général                        8 Septembre 2021</t>
+  </si>
+  <si>
+    <t>49:01</t>
   </si>
 </sst>
 </file>
@@ -507,13 +510,13 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1134,8 +1137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C608F641-1107-4619-BF49-C5F202B945A5}">
   <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1147,21 +1150,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
       <c r="E1"/>
     </row>
     <row r="2" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1468,19 +1471,19 @@
         <v>15</v>
       </c>
       <c r="B18" s="3">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="C18" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>88</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1488,19 +1491,19 @@
         <v>16</v>
       </c>
       <c r="B19" s="3">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="D19" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1508,19 +1511,19 @@
         <v>17</v>
       </c>
       <c r="B20" s="3">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="C20" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="D20" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1528,19 +1531,19 @@
         <v>18</v>
       </c>
       <c r="B21" s="3">
-        <v>608</v>
+        <v>621</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="D21" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1548,19 +1551,19 @@
         <v>19</v>
       </c>
       <c r="B22" s="3">
-        <v>236</v>
+        <v>608</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="D22" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1568,19 +1571,19 @@
         <v>20</v>
       </c>
       <c r="B23" s="3">
-        <v>627</v>
+        <v>236</v>
       </c>
       <c r="C23" t="s">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="D23" t="s">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1588,59 +1591,59 @@
         <v>21</v>
       </c>
       <c r="B24" s="3">
-        <v>647</v>
+        <v>627</v>
       </c>
       <c r="C24" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="D24" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>22</v>
       </c>
-      <c r="B25" s="4">
-        <v>408</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>118</v>
+      <c r="B25" s="3">
+        <v>647</v>
+      </c>
+      <c r="C25" t="s">
+        <v>106</v>
+      </c>
+      <c r="D25" t="s">
+        <v>107</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>56</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>23</v>
       </c>
-      <c r="B26" s="3">
-        <v>636</v>
-      </c>
-      <c r="C26" t="s">
-        <v>97</v>
-      </c>
-      <c r="D26" t="s">
-        <v>98</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>119</v>
+      <c r="B26" s="4">
+        <v>408</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>118</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>111</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1648,19 +1651,19 @@
         <v>24</v>
       </c>
       <c r="B27" s="3">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="C27" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D27" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1668,19 +1671,19 @@
         <v>25</v>
       </c>
       <c r="B28" s="3">
-        <v>116</v>
+        <v>643</v>
       </c>
       <c r="C28" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="D28" t="s">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>47</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1688,19 +1691,19 @@
         <v>26</v>
       </c>
       <c r="B29" s="3">
-        <v>615</v>
+        <v>116</v>
       </c>
       <c r="C29" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>119</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1708,19 +1711,19 @@
         <v>27</v>
       </c>
       <c r="B30" s="3">
-        <v>407</v>
+        <v>615</v>
       </c>
       <c r="C30" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="D30" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>55</v>
+        <v>119</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1728,19 +1731,19 @@
         <v>28</v>
       </c>
       <c r="B31" s="3">
-        <v>626</v>
+        <v>407</v>
       </c>
       <c r="C31" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D31" t="s">
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>95</v>
+        <v>120</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1748,19 +1751,19 @@
         <v>29</v>
       </c>
       <c r="B32" s="3">
-        <v>606</v>
+        <v>626</v>
       </c>
       <c r="C32" t="s">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1768,19 +1771,19 @@
         <v>30</v>
       </c>
       <c r="B33" s="3">
-        <v>406</v>
+        <v>606</v>
       </c>
       <c r="C33" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D33" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>119</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1788,19 +1791,19 @@
         <v>31</v>
       </c>
       <c r="B34" s="3">
-        <v>603</v>
+        <v>406</v>
       </c>
       <c r="C34" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D34" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1808,19 +1811,19 @@
         <v>32</v>
       </c>
       <c r="B35" s="3">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="C35" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D35" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1828,19 +1831,19 @@
         <v>33</v>
       </c>
       <c r="B36" s="3">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="C36" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="D36" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1848,19 +1851,19 @@
         <v>34</v>
       </c>
       <c r="B37" s="3">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="C37" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="D37" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1925,7 +1928,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B41" s="4">
         <v>645</v>
@@ -1945,7 +1948,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B42" s="3">
         <v>409</v>
@@ -1965,7 +1968,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B43" s="3">
         <v>620</v>
@@ -2035,21 +2038,21 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
       <c r="E48"/>
     </row>
     <row r="49" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="11"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
+      <c r="A49" s="9"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
@@ -2649,19 +2652,19 @@
         <v>7</v>
       </c>
       <c r="B83" s="3">
-        <v>621</v>
+        <v>610</v>
       </c>
       <c r="C83" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="D83" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>118</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>91</v>
+        <v>129</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -2669,59 +2672,59 @@
         <v>8</v>
       </c>
       <c r="B84" s="3">
-        <v>236</v>
+        <v>621</v>
       </c>
       <c r="C84" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="D84" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>118</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>9</v>
       </c>
-      <c r="B85" s="4">
-        <v>408</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E85" s="4" t="s">
+      <c r="B85" s="3">
+        <v>236</v>
+      </c>
+      <c r="C85" t="s">
+        <v>14</v>
+      </c>
+      <c r="D85" t="s">
+        <v>15</v>
+      </c>
+      <c r="E85" s="3" t="s">
         <v>118</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>10</v>
       </c>
-      <c r="B86" s="3">
-        <v>643</v>
-      </c>
-      <c r="C86" t="s">
-        <v>103</v>
-      </c>
-      <c r="D86" t="s">
-        <v>100</v>
-      </c>
-      <c r="E86" s="3" t="s">
+      <c r="B86" s="4">
+        <v>408</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E86" s="4" t="s">
         <v>118</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>126</v>
+        <v>56</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -2729,19 +2732,19 @@
         <v>11</v>
       </c>
       <c r="B87" s="3">
-        <v>603</v>
+        <v>643</v>
       </c>
       <c r="C87" t="s">
-        <v>32</v>
+        <v>103</v>
       </c>
       <c r="D87" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>118</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>61</v>
+        <v>126</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -2749,19 +2752,19 @@
         <v>12</v>
       </c>
       <c r="B88" s="3">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="C88" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D88" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>118</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -2978,20 +2981,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">

--- a/CircuitLevis/resultats/Resultats_2_2021.xlsx
+++ b/CircuitLevis/resultats/Resultats_2_2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projets\cx418WebSite\CircuitLevis\resultats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA85EB8C-36EA-4858-A9B5-7E7B11773523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBCC881F-6A9C-4AA0-B25C-931839E987DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F188DD37-E70F-4203-841D-5192F274CDB0}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="131">
   <si>
     <t>No</t>
   </si>
@@ -425,6 +425,9 @@
   </si>
   <si>
     <t>49:01</t>
+  </si>
+  <si>
+    <t>50:50</t>
   </si>
 </sst>
 </file>
@@ -1137,8 +1140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C608F641-1107-4619-BF49-C5F202B945A5}">
   <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1571,19 +1574,19 @@
         <v>20</v>
       </c>
       <c r="B23" s="3">
-        <v>236</v>
+        <v>637</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="D23" t="s">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>52</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1591,19 +1594,19 @@
         <v>21</v>
       </c>
       <c r="B24" s="3">
-        <v>627</v>
+        <v>236</v>
       </c>
       <c r="C24" t="s">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1611,59 +1614,59 @@
         <v>22</v>
       </c>
       <c r="B25" s="3">
-        <v>647</v>
+        <v>627</v>
       </c>
       <c r="C25" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="D25" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>23</v>
       </c>
-      <c r="B26" s="4">
-        <v>408</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>118</v>
+      <c r="B26" s="3">
+        <v>647</v>
+      </c>
+      <c r="C26" t="s">
+        <v>106</v>
+      </c>
+      <c r="D26" t="s">
+        <v>107</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>56</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>24</v>
       </c>
-      <c r="B27" s="3">
-        <v>636</v>
-      </c>
-      <c r="C27" t="s">
-        <v>97</v>
-      </c>
-      <c r="D27" t="s">
-        <v>98</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>119</v>
+      <c r="B27" s="4">
+        <v>408</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>118</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>111</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1671,19 +1674,19 @@
         <v>25</v>
       </c>
       <c r="B28" s="3">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="C28" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D28" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1691,19 +1694,19 @@
         <v>26</v>
       </c>
       <c r="B29" s="3">
-        <v>116</v>
+        <v>643</v>
       </c>
       <c r="C29" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="D29" t="s">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>47</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1711,19 +1714,19 @@
         <v>27</v>
       </c>
       <c r="B30" s="3">
-        <v>615</v>
+        <v>116</v>
       </c>
       <c r="C30" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="D30" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>119</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1731,19 +1734,19 @@
         <v>28</v>
       </c>
       <c r="B31" s="3">
-        <v>407</v>
+        <v>615</v>
       </c>
       <c r="C31" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="D31" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>55</v>
+        <v>119</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1751,19 +1754,19 @@
         <v>29</v>
       </c>
       <c r="B32" s="3">
-        <v>626</v>
+        <v>407</v>
       </c>
       <c r="C32" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D32" t="s">
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>95</v>
+        <v>120</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1771,19 +1774,19 @@
         <v>30</v>
       </c>
       <c r="B33" s="3">
-        <v>606</v>
+        <v>626</v>
       </c>
       <c r="C33" t="s">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="D33" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1791,19 +1794,19 @@
         <v>31</v>
       </c>
       <c r="B34" s="3">
-        <v>406</v>
+        <v>606</v>
       </c>
       <c r="C34" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D34" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>119</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1811,19 +1814,19 @@
         <v>32</v>
       </c>
       <c r="B35" s="3">
-        <v>603</v>
+        <v>406</v>
       </c>
       <c r="C35" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D35" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1831,19 +1834,19 @@
         <v>33</v>
       </c>
       <c r="B36" s="3">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="C36" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D36" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1851,19 +1854,19 @@
         <v>34</v>
       </c>
       <c r="B37" s="3">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="C37" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="D37" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1871,19 +1874,19 @@
         <v>35</v>
       </c>
       <c r="B38" s="3">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="C38" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D38" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1891,19 +1894,19 @@
         <v>36</v>
       </c>
       <c r="B39" s="3">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="C39" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D39" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1911,19 +1914,19 @@
         <v>37</v>
       </c>
       <c r="B40" s="3">
-        <v>637</v>
+        <v>619</v>
       </c>
       <c r="C40" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="D40" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -2351,19 +2354,19 @@
         <v>8</v>
       </c>
       <c r="B67" s="3">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="C67" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D67" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>119</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2371,19 +2374,19 @@
         <v>9</v>
       </c>
       <c r="B68" s="3">
-        <v>636</v>
+        <v>647</v>
       </c>
       <c r="C68" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="D68" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>119</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2391,19 +2394,19 @@
         <v>10</v>
       </c>
       <c r="B69" s="3">
-        <v>116</v>
+        <v>636</v>
       </c>
       <c r="C69" t="s">
-        <v>5</v>
+        <v>97</v>
       </c>
       <c r="D69" t="s">
-        <v>6</v>
+        <v>98</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>119</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>47</v>
+        <v>111</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2411,19 +2414,19 @@
         <v>11</v>
       </c>
       <c r="B70" s="3">
-        <v>615</v>
+        <v>116</v>
       </c>
       <c r="C70" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="D70" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>119</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2431,19 +2434,19 @@
         <v>12</v>
       </c>
       <c r="B71" s="3">
-        <v>606</v>
+        <v>615</v>
       </c>
       <c r="C71" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="D71" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>119</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2451,19 +2454,19 @@
         <v>13</v>
       </c>
       <c r="B72" s="3">
-        <v>406</v>
+        <v>606</v>
       </c>
       <c r="C72" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D72" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>119</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -2471,19 +2474,19 @@
         <v>14</v>
       </c>
       <c r="B73" s="3">
-        <v>616</v>
+        <v>406</v>
       </c>
       <c r="C73" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="D73" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>119</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -2491,19 +2494,19 @@
         <v>15</v>
       </c>
       <c r="B74" s="3">
-        <v>637</v>
+        <v>616</v>
       </c>
       <c r="C74" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="D74" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>119</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
